--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.20257466666666</v>
+        <v>36.70383333333333</v>
       </c>
       <c r="H2">
-        <v>120.607724</v>
+        <v>110.1115</v>
       </c>
       <c r="I2">
-        <v>0.7995260903790052</v>
+        <v>0.7793963013403331</v>
       </c>
       <c r="J2">
-        <v>0.8015583422966207</v>
+        <v>0.78322622712988</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.6693703333333</v>
+        <v>97.999779</v>
       </c>
       <c r="N2">
-        <v>356.008111</v>
+        <v>293.999337</v>
       </c>
       <c r="O2">
-        <v>0.9747208565055959</v>
+        <v>0.954667399411267</v>
       </c>
       <c r="P2">
-        <v>0.9753795134398372</v>
+        <v>0.9562924695444477</v>
       </c>
       <c r="Q2">
-        <v>4770.814221472151</v>
+        <v>3596.9675551195</v>
       </c>
       <c r="R2">
-        <v>42937.32799324936</v>
+        <v>32372.7079960755</v>
       </c>
       <c r="S2">
-        <v>0.7793147556127945</v>
+        <v>0.744064240111336</v>
       </c>
       <c r="T2">
-        <v>0.7818235859029203</v>
+        <v>0.7489933429540134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.20257466666666</v>
+        <v>36.70383333333333</v>
       </c>
       <c r="H3">
-        <v>120.607724</v>
+        <v>110.1115</v>
       </c>
       <c r="I3">
-        <v>0.7995260903790052</v>
+        <v>0.7793963013403331</v>
       </c>
       <c r="J3">
-        <v>0.8015583422966207</v>
+        <v>0.78322622712988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.701694</v>
       </c>
       <c r="O3">
-        <v>0.004659097874290942</v>
+        <v>0.005525698806503622</v>
       </c>
       <c r="P3">
-        <v>0.004662246208608124</v>
+        <v>0.00553510485524996</v>
       </c>
       <c r="Q3">
-        <v>22.80416003160622</v>
+        <v>20.81956432011111</v>
       </c>
       <c r="R3">
-        <v>205.237440284456</v>
+        <v>187.376078881</v>
       </c>
       <c r="S3">
-        <v>0.003725070308124971</v>
+        <v>0.004306709212109616</v>
       </c>
       <c r="T3">
-        <v>0.003737062342350633</v>
+        <v>0.004335239292545707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.20257466666666</v>
+        <v>36.70383333333333</v>
       </c>
       <c r="H4">
-        <v>120.607724</v>
+        <v>110.1115</v>
       </c>
       <c r="I4">
-        <v>0.7995260903790052</v>
+        <v>0.7793963013403331</v>
       </c>
       <c r="J4">
-        <v>0.8015583422966207</v>
+        <v>0.78322622712988</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.982288</v>
+        <v>3.238873</v>
       </c>
       <c r="N4">
-        <v>5.946864</v>
+        <v>9.716619</v>
       </c>
       <c r="O4">
-        <v>0.01628202333739046</v>
+        <v>0.03155156568193249</v>
       </c>
       <c r="P4">
-        <v>0.01629302573618297</v>
+        <v>0.03160527392322827</v>
       </c>
       <c r="Q4">
-        <v>79.69308133083732</v>
+        <v>118.8790547798333</v>
       </c>
       <c r="R4">
-        <v>717.2377319775359</v>
+        <v>1069.9114930185</v>
       </c>
       <c r="S4">
-        <v>0.01301790246240352</v>
+        <v>0.02459117359399476</v>
       </c>
       <c r="T4">
-        <v>0.013059810700091</v>
+        <v>0.02475407945229646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.20257466666666</v>
+        <v>36.70383333333333</v>
       </c>
       <c r="H5">
-        <v>120.607724</v>
+        <v>110.1115</v>
       </c>
       <c r="I5">
-        <v>0.7995260903790052</v>
+        <v>0.7793963013403331</v>
       </c>
       <c r="J5">
-        <v>0.8015583422966207</v>
+        <v>0.78322622712988</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.246641</v>
+        <v>0.5233300000000001</v>
       </c>
       <c r="N5">
-        <v>0.493282</v>
+        <v>1.04666</v>
       </c>
       <c r="O5">
-        <v>0.002025848170375506</v>
+        <v>0.005098032824481149</v>
       </c>
       <c r="P5">
-        <v>0.001351478076713342</v>
+        <v>0.003404473922923818</v>
       </c>
       <c r="Q5">
-        <v>9.915603218361332</v>
+        <v>19.20821709833333</v>
       </c>
       <c r="R5">
-        <v>59.49361931016799</v>
+        <v>115.24930259</v>
       </c>
       <c r="S5">
-        <v>0.001619718467361789</v>
+        <v>0.003973387927512219</v>
       </c>
       <c r="T5">
-        <v>0.001083288526820571</v>
+        <v>0.002666473266013684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.20257466666666</v>
+        <v>36.70383333333333</v>
       </c>
       <c r="H6">
-        <v>120.607724</v>
+        <v>110.1115</v>
       </c>
       <c r="I6">
-        <v>0.7995260903790052</v>
+        <v>0.7793963013403331</v>
       </c>
       <c r="J6">
-        <v>0.8015583422966207</v>
+        <v>0.78322622712988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2815003333333333</v>
+        <v>0.3241076666666667</v>
       </c>
       <c r="N6">
-        <v>0.8445009999999999</v>
+        <v>0.972323</v>
       </c>
       <c r="O6">
-        <v>0.00231217411234721</v>
+        <v>0.003157303275815759</v>
       </c>
       <c r="P6">
-        <v>0.002313736538658402</v>
+        <v>0.003162677754150398</v>
       </c>
       <c r="Q6">
-        <v>11.31703816952489</v>
+        <v>11.89599377938889</v>
       </c>
       <c r="R6">
-        <v>101.853343525724</v>
+        <v>107.0639440145</v>
       </c>
       <c r="S6">
-        <v>0.001848643528320512</v>
+        <v>0.00246079049538052</v>
       </c>
       <c r="T6">
-        <v>0.001854594824438149</v>
+        <v>0.002477092165010819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.093915</v>
       </c>
       <c r="I7">
-        <v>0.1928677811196329</v>
+        <v>0.2059338919414416</v>
       </c>
       <c r="J7">
-        <v>0.1933580164262016</v>
+        <v>0.2069458437845949</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>118.6693703333333</v>
+        <v>97.999779</v>
       </c>
       <c r="N7">
-        <v>356.008111</v>
+        <v>293.999337</v>
       </c>
       <c r="O7">
-        <v>0.9747208565055959</v>
+        <v>0.954667399411267</v>
       </c>
       <c r="P7">
-        <v>0.9753795134398372</v>
+        <v>0.9562924695444477</v>
       </c>
       <c r="Q7">
-        <v>1150.852191193841</v>
+        <v>950.3990800815951</v>
       </c>
       <c r="R7">
-        <v>10357.66972074456</v>
+        <v>8553.591720734357</v>
       </c>
       <c r="S7">
-        <v>0.1879922488052624</v>
+        <v>0.1965983730703769</v>
       </c>
       <c r="T7">
-        <v>0.1885974479814806</v>
+        <v>0.1979007520147298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>29.093915</v>
       </c>
       <c r="I8">
-        <v>0.1928677811196329</v>
+        <v>0.2059338919414416</v>
       </c>
       <c r="J8">
-        <v>0.1933580164262016</v>
+        <v>0.2069458437845949</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>1.701694</v>
       </c>
       <c r="O8">
-        <v>0.004659097874290942</v>
+        <v>0.005525698806503622</v>
       </c>
       <c r="P8">
-        <v>0.004662246208608124</v>
+        <v>0.00553510485524996</v>
       </c>
       <c r="Q8">
         <v>5.500993399112223</v>
       </c>
       <c r="R8">
-        <v>49.50894059201</v>
+        <v>49.50894059201001</v>
       </c>
       <c r="S8">
-        <v>0.0008985898690336924</v>
+        <v>0.00113792866091947</v>
       </c>
       <c r="T8">
-        <v>0.0009014826789870458</v>
+        <v>0.001145466944705911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>29.093915</v>
       </c>
       <c r="I9">
-        <v>0.1928677811196329</v>
+        <v>0.2059338919414416</v>
       </c>
       <c r="J9">
-        <v>0.1933580164262016</v>
+        <v>0.2069458437845949</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.982288</v>
+        <v>3.238873</v>
       </c>
       <c r="N9">
-        <v>5.946864</v>
+        <v>9.716619</v>
       </c>
       <c r="O9">
-        <v>0.01628202333739046</v>
+        <v>0.03155156568193249</v>
       </c>
       <c r="P9">
-        <v>0.01629302573618297</v>
+        <v>0.03160527392322827</v>
       </c>
       <c r="Q9">
-        <v>19.22417285917333</v>
+        <v>31.41049858593167</v>
       </c>
       <c r="R9">
-        <v>173.01755573256</v>
+        <v>282.694487273385</v>
       </c>
       <c r="S9">
-        <v>0.003140277713220579</v>
+        <v>0.006497536717726381</v>
       </c>
       <c r="T9">
-        <v>0.003150387137929393</v>
+        <v>0.00654058008008573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>29.093915</v>
       </c>
       <c r="I10">
-        <v>0.1928677811196329</v>
+        <v>0.2059338919414416</v>
       </c>
       <c r="J10">
-        <v>0.1933580164262016</v>
+        <v>0.2069458437845949</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.246641</v>
+        <v>0.5233300000000001</v>
       </c>
       <c r="N10">
-        <v>0.493282</v>
+        <v>1.04666</v>
       </c>
       <c r="O10">
-        <v>0.002025848170375506</v>
+        <v>0.005098032824481149</v>
       </c>
       <c r="P10">
-        <v>0.001351478076713342</v>
+        <v>0.003404473922923818</v>
       </c>
       <c r="Q10">
-        <v>2.391917429838334</v>
+        <v>5.075239512316668</v>
       </c>
       <c r="R10">
-        <v>14.35150457903</v>
+        <v>30.45143707390001</v>
       </c>
       <c r="S10">
-        <v>0.0003907208415055919</v>
+        <v>0.001049857740790623</v>
       </c>
       <c r="T10">
-        <v>0.0002613191201567897</v>
+        <v>0.0007045417286221196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>29.093915</v>
       </c>
       <c r="I11">
-        <v>0.1928677811196329</v>
+        <v>0.2059338919414416</v>
       </c>
       <c r="J11">
-        <v>0.1933580164262016</v>
+        <v>0.2069458437845949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2815003333333333</v>
+        <v>0.3241076666666667</v>
       </c>
       <c r="N11">
-        <v>0.8445009999999999</v>
+        <v>0.972323</v>
       </c>
       <c r="O11">
-        <v>0.00231217411234721</v>
+        <v>0.003157303275815759</v>
       </c>
       <c r="P11">
-        <v>0.002313736538658402</v>
+        <v>0.003162677754150398</v>
       </c>
       <c r="Q11">
-        <v>2.729982256823889</v>
+        <v>3.143186968282778</v>
       </c>
       <c r="R11">
-        <v>24.569840311415</v>
+        <v>28.288682714545</v>
       </c>
       <c r="S11">
-        <v>0.0004459438906106633</v>
+        <v>0.0006501957516282021</v>
       </c>
       <c r="T11">
-        <v>0.0004473795076478141</v>
+        <v>0.0006545030164514218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.382459</v>
+        <v>0.69084</v>
       </c>
       <c r="H12">
-        <v>0.764918</v>
+        <v>1.38168</v>
       </c>
       <c r="I12">
-        <v>0.007606128501361918</v>
+        <v>0.01466980671822532</v>
       </c>
       <c r="J12">
-        <v>0.005083641277177625</v>
+        <v>0.009827929085525242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>118.6693703333333</v>
+        <v>97.999779</v>
       </c>
       <c r="N12">
-        <v>356.008111</v>
+        <v>293.999337</v>
       </c>
       <c r="O12">
-        <v>0.9747208565055959</v>
+        <v>0.954667399411267</v>
       </c>
       <c r="P12">
-        <v>0.9753795134398372</v>
+        <v>0.9562924695444477</v>
       </c>
       <c r="Q12">
-        <v>45.38616870831633</v>
+        <v>67.70216732436</v>
       </c>
       <c r="R12">
-        <v>272.317012249898</v>
+        <v>406.21300394616</v>
       </c>
       <c r="S12">
-        <v>0.007413852087539113</v>
+        <v>0.0140047862295541</v>
       </c>
       <c r="T12">
-        <v>0.004958479555436185</v>
+        <v>0.009398374575704639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.382459</v>
+        <v>0.69084</v>
       </c>
       <c r="H13">
-        <v>0.764918</v>
+        <v>1.38168</v>
       </c>
       <c r="I13">
-        <v>0.007606128501361918</v>
+        <v>0.01466980671822532</v>
       </c>
       <c r="J13">
-        <v>0.005083641277177625</v>
+        <v>0.009827929085525242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.701694</v>
       </c>
       <c r="O13">
-        <v>0.004659097874290942</v>
+        <v>0.005525698806503622</v>
       </c>
       <c r="P13">
-        <v>0.004662246208608124</v>
+        <v>0.00553510485524996</v>
       </c>
       <c r="Q13">
-        <v>0.2169427285153333</v>
+        <v>0.39186609432</v>
       </c>
       <c r="R13">
-        <v>1.301656371092</v>
+        <v>2.35119656592</v>
       </c>
       <c r="S13">
-        <v>3.543769713227906E-05</v>
+        <v>8.106093347453648E-05</v>
       </c>
       <c r="T13">
-        <v>2.370118727044515E-05</v>
+        <v>5.439861799834307E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.382459</v>
+        <v>0.69084</v>
       </c>
       <c r="H14">
-        <v>0.764918</v>
+        <v>1.38168</v>
       </c>
       <c r="I14">
-        <v>0.007606128501361918</v>
+        <v>0.01466980671822532</v>
       </c>
       <c r="J14">
-        <v>0.005083641277177625</v>
+        <v>0.009827929085525242</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.982288</v>
+        <v>3.238873</v>
       </c>
       <c r="N14">
-        <v>5.946864</v>
+        <v>9.716619</v>
       </c>
       <c r="O14">
-        <v>0.01628202333739046</v>
+        <v>0.03155156568193249</v>
       </c>
       <c r="P14">
-        <v>0.01629302573618297</v>
+        <v>0.03160527392322827</v>
       </c>
       <c r="Q14">
-        <v>0.7581438861919999</v>
+        <v>2.23754302332</v>
       </c>
       <c r="R14">
-        <v>4.548863317152</v>
+        <v>13.42525813992</v>
       </c>
       <c r="S14">
-        <v>0.0001238431617663655</v>
+        <v>0.0004628553702113406</v>
       </c>
       <c r="T14">
-        <v>8.282789816257712E-05</v>
+        <v>0.0003106143908460877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.382459</v>
+        <v>0.69084</v>
       </c>
       <c r="H15">
-        <v>0.764918</v>
+        <v>1.38168</v>
       </c>
       <c r="I15">
-        <v>0.007606128501361918</v>
+        <v>0.01466980671822532</v>
       </c>
       <c r="J15">
-        <v>0.005083641277177625</v>
+        <v>0.009827929085525242</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.246641</v>
+        <v>0.5233300000000001</v>
       </c>
       <c r="N15">
-        <v>0.493282</v>
+        <v>1.04666</v>
       </c>
       <c r="O15">
-        <v>0.002025848170375506</v>
+        <v>0.005098032824481149</v>
       </c>
       <c r="P15">
-        <v>0.001351478076713342</v>
+        <v>0.003404473922923818</v>
       </c>
       <c r="Q15">
-        <v>0.094330070219</v>
+        <v>0.3615372972000001</v>
       </c>
       <c r="R15">
-        <v>0.377320280876</v>
+        <v>1.4461491888</v>
       </c>
       <c r="S15">
-        <v>1.540886150812503E-05</v>
+        <v>7.478715617830677E-05</v>
       </c>
       <c r="T15">
-        <v>6.870429735980572E-06</v>
+        <v>3.345892828801522E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.382459</v>
+        <v>0.69084</v>
       </c>
       <c r="H16">
-        <v>0.764918</v>
+        <v>1.38168</v>
       </c>
       <c r="I16">
-        <v>0.007606128501361918</v>
+        <v>0.01466980671822532</v>
       </c>
       <c r="J16">
-        <v>0.005083641277177625</v>
+        <v>0.009827929085525242</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2815003333333333</v>
+        <v>0.3241076666666667</v>
       </c>
       <c r="N16">
-        <v>0.8445009999999999</v>
+        <v>0.972323</v>
       </c>
       <c r="O16">
-        <v>0.00231217411234721</v>
+        <v>0.003157303275815759</v>
       </c>
       <c r="P16">
-        <v>0.002313736538658402</v>
+        <v>0.003162677754150398</v>
       </c>
       <c r="Q16">
-        <v>0.1076623359863333</v>
+        <v>0.22390654044</v>
       </c>
       <c r="R16">
-        <v>0.645974015918</v>
+        <v>1.34343924264</v>
       </c>
       <c r="S16">
-        <v>1.758669341603531E-05</v>
+        <v>4.631702880703684E-05</v>
       </c>
       <c r="T16">
-        <v>1.176220657243793E-05</v>
+        <v>3.108257268815835E-05</v>
       </c>
     </row>
   </sheetData>
